--- a/output/CGI_29232917000101.xlsx
+++ b/output/CGI_29232917000101.xlsx
@@ -724,10 +724,10 @@
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>0.4421187</v>
+        <v>0.4427569</v>
       </c>
       <c r="C31">
-        <v>-0.004884428426993881</v>
+        <v>-0.004444046676325364</v>
       </c>
     </row>
   </sheetData>

--- a/output/CGI_29232917000101.xlsx
+++ b/output/CGI_29232917000101.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CGI I MULTIMERCADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,348 +383,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43281</v>
       </c>
       <c r="B2">
-        <v>0.03480050000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43312</v>
       </c>
       <c r="B3">
-        <v>0.02814000000000005</v>
-      </c>
-      <c r="C3">
         <v>-0.006436506360404715</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43343</v>
       </c>
       <c r="B4">
-        <v>0.03911690000000001</v>
-      </c>
-      <c r="C4">
         <v>0.01067646429474589</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43373</v>
       </c>
       <c r="B5">
-        <v>0.03459679999999987</v>
-      </c>
-      <c r="C5">
         <v>-0.004349943687760427</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43404</v>
       </c>
       <c r="B6">
-        <v>0.06701549999999989</v>
-      </c>
-      <c r="C6">
         <v>0.03133462233790008</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43434</v>
       </c>
       <c r="B7">
-        <v>0.06021719999999986</v>
-      </c>
-      <c r="C7">
         <v>-0.006371322628396681</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43465</v>
       </c>
       <c r="B8">
-        <v>0.07370160000000014</v>
-      </c>
-      <c r="C8">
         <v>0.01271852597750756</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43496</v>
       </c>
       <c r="B9">
-        <v>0.09172670000000016</v>
-      </c>
-      <c r="C9">
         <v>0.01678781143662267</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43524</v>
       </c>
       <c r="B10">
-        <v>0.07643730000000004</v>
-      </c>
-      <c r="C10">
         <v>-0.014004787095525</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43555</v>
       </c>
       <c r="B11">
-        <v>0.08389240000000009</v>
-      </c>
-      <c r="C11">
         <v>0.006925716899628176</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43585</v>
       </c>
       <c r="B12">
-        <v>0.08959740000000016</v>
-      </c>
-      <c r="C12">
         <v>0.005263437588454378</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43616</v>
       </c>
       <c r="B13">
-        <v>0.09774210000000005</v>
-      </c>
-      <c r="C13">
         <v>0.007474962770652516</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43646</v>
       </c>
       <c r="B14">
-        <v>0.1316556</v>
-      </c>
-      <c r="C14">
         <v>0.03089386842319342</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43677</v>
       </c>
       <c r="B15">
-        <v>0.1392080999999998</v>
-      </c>
-      <c r="C15">
         <v>0.006673850242070012</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43708</v>
       </c>
       <c r="B16">
-        <v>0.1616497000000001</v>
-      </c>
-      <c r="C16">
         <v>0.0196992981352575</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43738</v>
       </c>
       <c r="B17">
-        <v>0.1571691</v>
-      </c>
-      <c r="C17">
         <v>-0.003857100811027747</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43769</v>
       </c>
       <c r="B18">
-        <v>0.1783402999999999</v>
-      </c>
-      <c r="C18">
         <v>0.01829568383739244</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43799</v>
       </c>
       <c r="B19">
-        <v>0.1982775999999999</v>
-      </c>
-      <c r="C19">
         <v>0.01691981509925444</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43830</v>
       </c>
       <c r="B20">
-        <v>0.2314691</v>
-      </c>
-      <c r="C20">
         <v>0.02769934112095562</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43861</v>
       </c>
       <c r="B21">
-        <v>0.2406025000000001</v>
-      </c>
-      <c r="C21">
         <v>0.007416670056926478</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43890</v>
       </c>
       <c r="B22">
-        <v>0.2567593000000001</v>
-      </c>
-      <c r="C22">
         <v>0.01302334954185569</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43921</v>
       </c>
       <c r="B23">
-        <v>0.3784673000000001</v>
-      </c>
-      <c r="C23">
         <v>0.09684272875482192</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43951</v>
       </c>
       <c r="B24">
-        <v>0.3996040000000001</v>
-      </c>
-      <c r="C24">
         <v>0.01533347943763341</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43982</v>
       </c>
       <c r="B25">
-        <v>0.3994165999999999</v>
-      </c>
-      <c r="C25">
         <v>-0.0001338950160189034</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44012</v>
       </c>
       <c r="B26">
-        <v>0.4284437000000001</v>
-      </c>
-      <c r="C26">
         <v>0.02074228646423104</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44043</v>
       </c>
       <c r="B27">
-        <v>0.4374321999999999</v>
-      </c>
-      <c r="C27">
         <v>0.006292512613552681</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44074</v>
       </c>
       <c r="B28">
-        <v>0.4585174000000001</v>
-      </c>
-      <c r="C28">
         <v>0.01466865706779075</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
       <c r="B29">
-        <v>0.4415122999999999</v>
-      </c>
-      <c r="C29">
         <v>-0.01165916841307491</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44135</v>
       </c>
       <c r="B30">
-        <v>0.4491972</v>
-      </c>
-      <c r="C30">
         <v>0.005331137306285871</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>0.4427569</v>
-      </c>
-      <c r="C31">
-        <v>-0.004444046676325364</v>
+        <v>-0.004485310901787609</v>
       </c>
     </row>
   </sheetData>
